--- a/biology/Médecine/Judd_Marmor/Judd_Marmor.xlsx
+++ b/biology/Médecine/Judd_Marmor/Judd_Marmor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Judd Marmor, né le 2 mai 1910 à Londres et mort le 16 décembre 2003, est un psychiatre et psychanalyste américain.
-Il est connu pour son implication dans le retrait de l'homosexualité du DSM-IV (Manuel diagnostique et statistique des troubles mentaux) publié par l'Association américaine de psychiatrie[1],[2].
+Il est connu pour son implication dans le retrait de l'homosexualité du DSM-IV (Manuel diagnostique et statistique des troubles mentaux) publié par l'Association américaine de psychiatrie,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un érudit de yiddish, il grandit à Chicago. Il s'installe à New York, où il subvient à l'université Columbia avec des petits boulots et de débattre des bourses d'études[pas clair]. Il obtient son diplôme de médecine de Columbia University College of Physicians and Surgeons (en) en 1933 et entre dans la pratique psychiatrique privée[pas clair] à New York. 
 En 1946, après avoir servi dans la marine pendant la Seconde Guerre mondiale, il s'installe à Los Angeles, où il acquiert la notoriété en tant que psychanalyste de célébrités d'Hollywood. 
